--- a/TimeSheets/TS-DII-SCA-13-10.xlsx
+++ b/TimeSheets/TS-DII-SCA-13-10.xlsx
@@ -423,36 +423,6 @@
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,6 +480,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,11 +817,11 @@
   </sheetPr>
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42"/>
     <col min="2" max="32" width="4.28515625"/>
@@ -829,949 +829,966 @@
     <col min="35" max="1025" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="38">
         <v>2013</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="6">
         <v>6</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="6">
         <v>7</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="6">
         <v>8</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="6">
         <v>9</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="6">
         <v>10</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="6">
         <v>11</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="6">
         <v>12</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="6">
         <v>13</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="6">
         <v>14</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="6">
         <v>15</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="6">
         <v>16</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="6">
         <v>17</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="6">
         <v>18</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="6">
         <v>19</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="6">
         <v>20</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="6">
         <v>21</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="6">
         <v>22</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="6">
         <v>23</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="6">
         <v>24</v>
       </c>
-      <c r="Z9" s="16">
+      <c r="Z9" s="6">
         <v>25</v>
       </c>
-      <c r="AA9" s="16">
+      <c r="AA9" s="6">
         <v>26</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AB9" s="6">
         <v>27</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="6">
         <v>28</v>
       </c>
-      <c r="AD9" s="16">
+      <c r="AD9" s="6">
         <v>29</v>
       </c>
-      <c r="AE9" s="16">
+      <c r="AE9" s="6">
         <v>30</v>
       </c>
-      <c r="AF9" s="17">
+      <c r="AF9" s="7">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20" t="s">
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="U10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20" t="s">
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AB10" s="20" t="s">
+      <c r="AB10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="21"/>
-    </row>
-    <row r="11" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="11"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10">
         <v>4</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="10">
         <v>5.5</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="10">
         <v>4.5</v>
       </c>
-      <c r="S11" s="20">
+      <c r="S11" s="10">
         <v>4</v>
       </c>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10">
         <v>4.25</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W11" s="10">
         <v>4.7</v>
       </c>
-      <c r="X11" s="20">
+      <c r="X11" s="10">
         <v>4.3</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="Y11" s="10">
         <v>4</v>
       </c>
-      <c r="Z11" s="20">
+      <c r="Z11" s="10">
         <v>4</v>
       </c>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20">
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD11" s="10">
         <v>4</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AE11" s="10">
         <v>4</v>
       </c>
-      <c r="AE11" s="20">
+      <c r="AF11" s="10">
         <v>4</v>
       </c>
-      <c r="AF11" s="20">
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="11"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="11"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="11"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="11"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="11"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="11"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <f t="shared" ref="B18:AF18" si="0">SUM(B11:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="Q18" s="15">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="R18" s="15">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="S18" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
+      </c>
+      <c r="W18" s="15">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="X18" s="15">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="Y18" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z18" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AA18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="15">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD18" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AE18" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AF18" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+    </row>
+    <row r="22" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="U22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+    </row>
+    <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="U23" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="32">
+        <f t="shared" ref="AE23:AE29" si="1">SUM(B11:AF11)</f>
+        <v>55.85</v>
+      </c>
+      <c r="AF23" s="32"/>
+    </row>
+    <row r="24" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="21"/>
-    </row>
-    <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="32"/>
+    </row>
+    <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="21"/>
-    </row>
-    <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="32"/>
+    </row>
+    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="21"/>
-    </row>
-    <row r="15" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="32"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U27" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="21"/>
-    </row>
-    <row r="16" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="32"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="U28" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="21"/>
-    </row>
-    <row r="17" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="32"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="U29" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="21"/>
-    </row>
-    <row r="18" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="32"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="U30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="25">
-        <f t="shared" ref="B18:AF18" si="0">SUM(B11:B17)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q18" s="25">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="R18" s="25">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="S18" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="T18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="25">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-      <c r="W18" s="25">
-        <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-      <c r="X18" s="25">
-        <f t="shared" si="0"/>
-        <v>4.3</v>
-      </c>
-      <c r="Y18" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Z18" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AA18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AD18" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AE18" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AF18" s="26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-    </row>
-    <row r="22" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="U22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-    </row>
-    <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="5">
-        <f t="shared" ref="AE23:AE29" si="1">SUM(B11:AF11)</f>
-        <v>55.25</v>
-      </c>
-      <c r="AF23" s="5"/>
-    </row>
-    <row r="24" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="5"/>
-    </row>
-    <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="5"/>
-    </row>
-    <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="5"/>
-    </row>
-    <row r="27" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="5"/>
-    </row>
-    <row r="28" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="U28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="5"/>
-    </row>
-    <row r="29" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="U29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="5"/>
-    </row>
-    <row r="30" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="U30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="3">
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="33"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="34">
         <f>SUM(AE23:AF29)</f>
-        <v>55.25</v>
-      </c>
-      <c r="AF30" s="3"/>
-    </row>
-    <row r="31" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
-    </row>
-    <row r="34" spans="1:27" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+        <v>55.85</v>
+      </c>
+      <c r="AF30" s="34"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+    </row>
+    <row r="34" spans="1:27" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="O34" s="36" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="O34" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-    </row>
-    <row r="35" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
-        <v>41582</v>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" s="28">
+        <v>41578</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="U22:AF22"/>
+    <mergeCell ref="U23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="U24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="U25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="U26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="U27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
     <mergeCell ref="U31:AD31"/>
     <mergeCell ref="AE31:AF31"/>
     <mergeCell ref="U28:AD28"/>
@@ -1780,26 +1797,9 @@
     <mergeCell ref="AE29:AF29"/>
     <mergeCell ref="U30:AD30"/>
     <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="U26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="U27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="U22:AF22"/>
-    <mergeCell ref="U23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="U24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:N5"/>
   </mergeCells>
   <pageMargins left="0.32013888888888897" right="0.2" top="1.92916666666667" bottom="1" header="0.87013888888888902" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;26Monthly time-sheet</oddHeader>
   </headerFooter>
@@ -1812,7 +1812,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="9.140625"/>
   </cols>
@@ -1828,7 +1828,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="9.140625"/>
   </cols>

--- a/TimeSheets/TS-DII-SCA-13-10.xlsx
+++ b/TimeSheets/TS-DII-SCA-13-10.xlsx
@@ -481,35 +481,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,8 +817,8 @@
   </sheetPr>
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -833,121 +833,121 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="30">
         <v>2013</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -1121,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="Q11" s="10">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="R11" s="10">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="S11" s="10">
         <v>4</v>
@@ -1132,13 +1132,13 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="W11" s="10">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="X11" s="10">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Y11" s="10">
         <v>4</v>
@@ -1149,7 +1149,7 @@
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="AD11" s="10">
         <v>4</v>
@@ -1443,11 +1443,11 @@
       </c>
       <c r="Q18" s="15">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="R18" s="15">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="S18" s="15">
         <f t="shared" si="0"/>
@@ -1463,15 +1463,15 @@
       </c>
       <c r="V18" s="15">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="W18" s="15">
         <f t="shared" si="0"/>
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="X18" s="15">
         <f t="shared" si="0"/>
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Y18" s="15">
         <f t="shared" si="0"/>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="AC18" s="15">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="AD18" s="15">
         <f t="shared" si="0"/>
@@ -1519,20 +1519,20 @@
         <v>19</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="U22" s="36" t="s">
+      <c r="U22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
@@ -1541,23 +1541,23 @@
       <c r="B23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="U23" s="31" t="s">
+      <c r="U23" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="32">
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="34">
         <f t="shared" ref="AE23:AE29" si="1">SUM(B11:AF11)</f>
-        <v>55.85</v>
-      </c>
-      <c r="AF23" s="32"/>
+        <v>52</v>
+      </c>
+      <c r="AF23" s="34"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
@@ -1566,23 +1566,23 @@
       <c r="B24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="U24" s="31" t="s">
+      <c r="U24" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="32">
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="32"/>
+      <c r="AF24" s="34"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
@@ -1591,23 +1591,23 @@
       <c r="B25" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="U25" s="31" t="s">
+      <c r="U25" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="32">
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="32"/>
+      <c r="AF25" s="34"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
@@ -1616,23 +1616,23 @@
       <c r="B26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="U26" s="31" t="s">
+      <c r="U26" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="32">
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="32"/>
+      <c r="AF26" s="34"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
@@ -1641,98 +1641,98 @@
       <c r="B27" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="U27" s="31" t="s">
+      <c r="U27" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="32">
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="32"/>
+      <c r="AF27" s="34"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
-      <c r="U28" s="31" t="s">
+      <c r="U28" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="32">
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="32"/>
+      <c r="AF28" s="34"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="25"/>
-      <c r="U29" s="31" t="s">
+      <c r="U29" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="32">
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="32"/>
+      <c r="AF29" s="34"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="U30" s="33" t="s">
+      <c r="U30" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="34">
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="38">
         <f>SUM(AE23:AF29)</f>
-        <v>55.85</v>
-      </c>
-      <c r="AF30" s="34"/>
+        <v>52</v>
+      </c>
+      <c r="AF30" s="38"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
     </row>
     <row r="34" spans="1:27" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
@@ -1772,23 +1772,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="U22:AF22"/>
-    <mergeCell ref="U23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="U24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="U25:AD25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="U26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="U27:AD27"/>
-    <mergeCell ref="AE27:AF27"/>
     <mergeCell ref="U31:AD31"/>
     <mergeCell ref="AE31:AF31"/>
     <mergeCell ref="U28:AD28"/>
@@ -1797,6 +1780,23 @@
     <mergeCell ref="AE29:AF29"/>
     <mergeCell ref="U30:AD30"/>
     <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="U25:AD25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="U26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="U27:AD27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="U22:AF22"/>
+    <mergeCell ref="U23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="U24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:N5"/>
   </mergeCells>
   <pageMargins left="0.32013888888888897" right="0.2" top="1.92916666666667" bottom="1" header="0.87013888888888902" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="83" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
